--- a/assets/templates/import-sources-template.xlsx
+++ b/assets/templates/import-sources-template.xlsx
@@ -93,7 +93,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Destination ID
+      <t xml:space="preserve">Destination Ids
 </t>
     </r>
     <r>
@@ -105,7 +105,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">// The rightId this income will go to</t>
+      <t xml:space="preserve">// The rightIds this income will go to</t>
     </r>
   </si>
 </sst>
@@ -340,16 +340,16 @@
   <dimension ref="A10:Y40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.35"/>
   </cols>
   <sheetData>
     <row r="10" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/assets/templates/import-sources-template.xlsx
+++ b/assets/templates/import-sources-template.xlsx
@@ -93,7 +93,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Destination Ids
+      <t xml:space="preserve">Destination Id
 </t>
     </r>
     <r>
@@ -105,7 +105,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">// The rightIds this income will go to</t>
+      <t xml:space="preserve">// The rightId this income will go to</t>
     </r>
   </si>
 </sst>
@@ -239,7 +239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,7 +256,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -340,16 +344,17 @@
   <dimension ref="A10:Y40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:G10"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.76"/>
   </cols>
   <sheetData>
     <row r="10" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -395,273 +400,273 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/assets/templates/import-sources-template.xlsx
+++ b/assets/templates/import-sources-template.xlsx
@@ -20,12 +20,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Waterfall ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source ID</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">International Title 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">// Or Waterfall Id</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Source Name</t>
@@ -93,7 +112,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Destination Id
+      <t xml:space="preserve">Destination
 </t>
     </r>
     <r>
@@ -105,7 +124,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">// The rightId this income will go to</t>
+      <t xml:space="preserve">// Revenue shares or group</t>
     </r>
   </si>
 </sst>
@@ -116,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -176,6 +195,11 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -239,7 +263,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -261,6 +285,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -341,20 +369,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A10:Y40"/>
+  <dimension ref="A10:X40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="10" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -367,18 +395,16 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -396,7 +422,6 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
@@ -405,7 +430,6 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
@@ -414,7 +438,6 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
@@ -423,7 +446,6 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
@@ -431,8 +453,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
@@ -441,7 +462,6 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
@@ -450,7 +470,6 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
@@ -459,7 +478,6 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
@@ -468,7 +486,6 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
@@ -477,7 +494,6 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
@@ -486,7 +502,6 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
@@ -495,7 +510,6 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
@@ -504,7 +518,6 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
@@ -513,7 +526,6 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
@@ -522,7 +534,6 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
@@ -531,7 +542,6 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
@@ -540,7 +550,6 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
@@ -549,7 +558,6 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
@@ -558,7 +566,6 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
@@ -567,7 +574,6 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
@@ -576,7 +582,6 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
@@ -585,7 +590,6 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
@@ -594,7 +598,6 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
@@ -603,7 +606,6 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
@@ -612,7 +614,6 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
@@ -621,7 +622,6 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
@@ -630,7 +630,6 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
@@ -639,7 +638,6 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
@@ -648,7 +646,6 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
@@ -657,7 +654,6 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
@@ -666,7 +662,6 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
